--- a/biology/Biochimie/Bactériochlorophylle/Bactériochlorophylle.xlsx
+++ b/biology/Biochimie/Bactériochlorophylle/Bactériochlorophylle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bact%C3%A9riochlorophylle</t>
+          <t>Bactériochlorophylle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bactériochlorophylles sont des pigments photosynthétiques présents chez différentes bactéries autotrophes. Elles sont proches des chlorophylles, les pigments primaires chez les plantes, les algues et les cyanobactéries. Les bactéries contenant des bactériochlorophylles effectuent la photosynthèse, mais ne produisent pas de dioxygène, elles utilisent des longueurs d'onde de la lumière différentes de celles utilisées par la photosynthèse fondée sur les chlorophylles a et b.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bact%C3%A9riochlorophylle</t>
+          <t>Bactériochlorophylle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Différents types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bactériochlorophylles diffèrent selon les groupes bactériens :
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bact%C3%A9riochlorophylle</t>
+          <t>Bactériochlorophylle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bactériochlorophylles c, d et e sont des chlorines, avec un cycle pyrrole réduit  de type D, les autres étant des bactériochlorines.
 	Structure des bactériochlorophylles
